--- a/templates/report_1_DOD.xlsx
+++ b/templates/report_1_DOD.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\OpenServer\domains\localhost\docs\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{932134DE-3FC2-4580-9765-7982AF34CAAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0F8608C-A81B-489C-A641-02DBBB84B7B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36915" yWindow="6015" windowWidth="21600" windowHeight="11385" activeTab="4" xr2:uid="{C4B63492-D2C0-4389-BD6B-B8F870C26331}"/>
+    <workbookView xWindow="48525" yWindow="2430" windowWidth="18960" windowHeight="14325" activeTab="4" xr2:uid="{C4B63492-D2C0-4389-BD6B-B8F870C26331}"/>
   </bookViews>
   <sheets>
     <sheet name="Раздел 3" sheetId="1" r:id="rId1"/>
@@ -488,64 +488,28 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="3"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -561,12 +525,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="3"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -579,19 +537,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -609,15 +558,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -638,38 +578,107 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="3"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -988,7 +997,7 @@
   <dimension ref="A1:N17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1010,381 +1019,569 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
+      <c r="A1" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="9" t="s">
+      <c r="B3" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9" t="s">
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9" t="s">
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9"/>
+      <c r="L3" s="44"/>
+      <c r="M3" s="44"/>
+      <c r="N3" s="44"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="8"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="10" t="s">
+      <c r="A4" s="43"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="11" t="s">
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="12" t="s">
+      <c r="H4" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="11" t="s">
+      <c r="I4" s="46"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="12" t="s">
+      <c r="L4" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="M4" s="12"/>
-      <c r="N4" s="12"/>
+      <c r="M4" s="46"/>
+      <c r="N4" s="46"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10" t="s">
+      <c r="A5" s="43"/>
+      <c r="B5" s="43"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="9"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11" t="s">
+      <c r="F5" s="44"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="I5" s="12" t="s">
+      <c r="I5" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="J5" s="12"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11" t="s">
+      <c r="J5" s="46"/>
+      <c r="K5" s="47"/>
+      <c r="L5" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="M5" s="12" t="s">
+      <c r="M5" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="N5" s="12"/>
+      <c r="N5" s="46"/>
     </row>
     <row r="6" spans="1:14" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="13" t="s">
+      <c r="A6" s="43"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="F6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="13" t="s">
+      <c r="G6" s="47"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J6" s="13" t="s">
+      <c r="J6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="13" t="s">
+      <c r="K6" s="47"/>
+      <c r="L6" s="47"/>
+      <c r="M6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N6" s="13" t="s">
+      <c r="N6" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="14">
+      <c r="A7" s="4">
         <v>1</v>
       </c>
-      <c r="B7" s="14">
-        <v>2</v>
-      </c>
-      <c r="C7" s="14">
+      <c r="B7" s="4">
+        <v>2</v>
+      </c>
+      <c r="C7" s="4">
         <v>3</v>
       </c>
-      <c r="D7" s="14">
+      <c r="D7" s="4">
         <v>4</v>
       </c>
-      <c r="E7" s="14">
+      <c r="E7" s="4">
         <v>5</v>
       </c>
-      <c r="F7" s="14">
+      <c r="F7" s="4">
         <v>6</v>
       </c>
-      <c r="G7" s="14">
+      <c r="G7" s="4">
         <v>7</v>
       </c>
-      <c r="H7" s="14">
+      <c r="H7" s="4">
         <v>8</v>
       </c>
-      <c r="I7" s="14">
+      <c r="I7" s="4">
         <v>9</v>
       </c>
-      <c r="J7" s="14">
+      <c r="J7" s="4">
         <v>10</v>
       </c>
-      <c r="K7" s="14">
+      <c r="K7" s="4">
         <v>11</v>
       </c>
-      <c r="L7" s="14">
+      <c r="L7" s="4">
         <v>12</v>
       </c>
-      <c r="M7" s="14">
+      <c r="M7" s="4">
         <v>13</v>
       </c>
-      <c r="N7" s="14">
+      <c r="N7" s="4">
         <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17"/>
-      <c r="M8" s="17"/>
-      <c r="N8" s="17"/>
+      <c r="C8" s="4">
+        <v>0</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0</v>
+      </c>
+      <c r="F8" s="4">
+        <v>0</v>
+      </c>
+      <c r="G8" s="4">
+        <v>0</v>
+      </c>
+      <c r="H8" s="4">
+        <v>0</v>
+      </c>
+      <c r="I8" s="4">
+        <v>0</v>
+      </c>
+      <c r="J8" s="4">
+        <v>0</v>
+      </c>
+      <c r="K8" s="4">
+        <v>0</v>
+      </c>
+      <c r="L8" s="4">
+        <v>0</v>
+      </c>
+      <c r="M8" s="4">
+        <v>0</v>
+      </c>
+      <c r="N8" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17"/>
+      <c r="C9" s="4">
+        <v>0</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0</v>
+      </c>
+      <c r="H9" s="4">
+        <v>0</v>
+      </c>
+      <c r="I9" s="4">
+        <v>0</v>
+      </c>
+      <c r="J9" s="4">
+        <v>0</v>
+      </c>
+      <c r="K9" s="4">
+        <v>0</v>
+      </c>
+      <c r="L9" s="4">
+        <v>0</v>
+      </c>
+      <c r="M9" s="4">
+        <v>0</v>
+      </c>
+      <c r="N9" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="17"/>
-      <c r="M10" s="17"/>
-      <c r="N10" s="17"/>
+      <c r="C10" s="4">
+        <v>0</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0</v>
+      </c>
+      <c r="E10" s="4">
+        <v>0</v>
+      </c>
+      <c r="F10" s="4">
+        <v>0</v>
+      </c>
+      <c r="G10" s="4">
+        <v>0</v>
+      </c>
+      <c r="H10" s="4">
+        <v>0</v>
+      </c>
+      <c r="I10" s="4">
+        <v>0</v>
+      </c>
+      <c r="J10" s="4">
+        <v>0</v>
+      </c>
+      <c r="K10" s="4">
+        <v>0</v>
+      </c>
+      <c r="L10" s="4">
+        <v>0</v>
+      </c>
+      <c r="M10" s="4">
+        <v>0</v>
+      </c>
+      <c r="N10" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="21" t="s">
+      <c r="A11" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="17"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="17"/>
+      <c r="C11" s="4">
+        <v>0</v>
+      </c>
+      <c r="D11" s="4">
+        <v>0</v>
+      </c>
+      <c r="E11" s="4">
+        <v>0</v>
+      </c>
+      <c r="F11" s="4">
+        <v>0</v>
+      </c>
+      <c r="G11" s="4">
+        <v>0</v>
+      </c>
+      <c r="H11" s="4">
+        <v>0</v>
+      </c>
+      <c r="I11" s="4">
+        <v>0</v>
+      </c>
+      <c r="J11" s="4">
+        <v>0</v>
+      </c>
+      <c r="K11" s="4">
+        <v>0</v>
+      </c>
+      <c r="L11" s="4">
+        <v>0</v>
+      </c>
+      <c r="M11" s="4">
+        <v>0</v>
+      </c>
+      <c r="N11" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="23" t="s">
+      <c r="A12" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="20" t="s">
+      <c r="B12" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="35"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="35"/>
-      <c r="H12" s="35"/>
-      <c r="I12" s="35"/>
-      <c r="J12" s="35"/>
-      <c r="K12" s="35"/>
-      <c r="L12" s="35"/>
-      <c r="M12" s="35"/>
-      <c r="N12" s="35"/>
+      <c r="C12" s="50">
+        <v>0</v>
+      </c>
+      <c r="D12" s="50">
+        <v>0</v>
+      </c>
+      <c r="E12" s="50">
+        <v>0</v>
+      </c>
+      <c r="F12" s="50">
+        <v>0</v>
+      </c>
+      <c r="G12" s="50">
+        <v>0</v>
+      </c>
+      <c r="H12" s="50">
+        <v>0</v>
+      </c>
+      <c r="I12" s="50">
+        <v>0</v>
+      </c>
+      <c r="J12" s="50">
+        <v>0</v>
+      </c>
+      <c r="K12" s="50">
+        <v>0</v>
+      </c>
+      <c r="L12" s="50">
+        <v>0</v>
+      </c>
+      <c r="M12" s="50">
+        <v>0</v>
+      </c>
+      <c r="N12" s="50">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="24" t="s">
+      <c r="A13" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="20"/>
-      <c r="C13" s="36"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="36"/>
-      <c r="I13" s="36"/>
-      <c r="J13" s="36"/>
-      <c r="K13" s="36"/>
-      <c r="L13" s="36"/>
-      <c r="M13" s="36"/>
-      <c r="N13" s="36"/>
+      <c r="B13" s="48"/>
+      <c r="C13" s="51"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="51"/>
+      <c r="H13" s="51"/>
+      <c r="I13" s="51"/>
+      <c r="J13" s="51"/>
+      <c r="K13" s="51"/>
+      <c r="L13" s="51"/>
+      <c r="M13" s="51"/>
+      <c r="N13" s="51"/>
     </row>
     <row r="14" spans="1:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="A14" s="25" t="s">
+      <c r="A14" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="17"/>
-      <c r="L14" s="17"/>
-      <c r="M14" s="17"/>
-      <c r="N14" s="17"/>
+      <c r="C14" s="4">
+        <v>0</v>
+      </c>
+      <c r="D14" s="4">
+        <v>0</v>
+      </c>
+      <c r="E14" s="4">
+        <v>0</v>
+      </c>
+      <c r="F14" s="4">
+        <v>0</v>
+      </c>
+      <c r="G14" s="4">
+        <v>0</v>
+      </c>
+      <c r="H14" s="4">
+        <v>0</v>
+      </c>
+      <c r="I14" s="4">
+        <v>0</v>
+      </c>
+      <c r="J14" s="4">
+        <v>0</v>
+      </c>
+      <c r="K14" s="4">
+        <v>0</v>
+      </c>
+      <c r="L14" s="4">
+        <v>0</v>
+      </c>
+      <c r="M14" s="4">
+        <v>0</v>
+      </c>
+      <c r="N14" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="23" t="s">
+      <c r="A15" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="20" t="s">
+      <c r="B15" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="35"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="35"/>
-      <c r="I15" s="35"/>
-      <c r="J15" s="35"/>
-      <c r="K15" s="35"/>
-      <c r="L15" s="35"/>
-      <c r="M15" s="35"/>
-      <c r="N15" s="35"/>
+      <c r="C15" s="50">
+        <v>0</v>
+      </c>
+      <c r="D15" s="50">
+        <v>0</v>
+      </c>
+      <c r="E15" s="50">
+        <v>0</v>
+      </c>
+      <c r="F15" s="50">
+        <v>0</v>
+      </c>
+      <c r="G15" s="50">
+        <v>0</v>
+      </c>
+      <c r="H15" s="50">
+        <v>0</v>
+      </c>
+      <c r="I15" s="50">
+        <v>0</v>
+      </c>
+      <c r="J15" s="50">
+        <v>0</v>
+      </c>
+      <c r="K15" s="50">
+        <v>0</v>
+      </c>
+      <c r="L15" s="50">
+        <v>0</v>
+      </c>
+      <c r="M15" s="50">
+        <v>0</v>
+      </c>
+      <c r="N15" s="50">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="22" t="s">
+      <c r="A16" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="18"/>
-      <c r="C16" s="36"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="36"/>
-      <c r="I16" s="36"/>
-      <c r="J16" s="36"/>
-      <c r="K16" s="36"/>
-      <c r="L16" s="36"/>
-      <c r="M16" s="36"/>
-      <c r="N16" s="36"/>
+      <c r="B16" s="49"/>
+      <c r="C16" s="51"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="51"/>
+      <c r="G16" s="51"/>
+      <c r="H16" s="51"/>
+      <c r="I16" s="51"/>
+      <c r="J16" s="51"/>
+      <c r="K16" s="51"/>
+      <c r="L16" s="51"/>
+      <c r="M16" s="51"/>
+      <c r="N16" s="51"/>
     </row>
     <row r="17" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="19" t="s">
+      <c r="A17" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="17"/>
-      <c r="K17" s="17"/>
-      <c r="L17" s="17"/>
-      <c r="M17" s="17"/>
-      <c r="N17" s="17"/>
+      <c r="C17" s="4">
+        <v>0</v>
+      </c>
+      <c r="D17" s="4">
+        <v>0</v>
+      </c>
+      <c r="E17" s="4">
+        <v>0</v>
+      </c>
+      <c r="F17" s="4">
+        <v>0</v>
+      </c>
+      <c r="G17" s="4">
+        <v>0</v>
+      </c>
+      <c r="H17" s="4">
+        <v>0</v>
+      </c>
+      <c r="I17" s="4">
+        <v>0</v>
+      </c>
+      <c r="J17" s="4">
+        <v>0</v>
+      </c>
+      <c r="K17" s="4">
+        <v>0</v>
+      </c>
+      <c r="L17" s="4">
+        <v>0</v>
+      </c>
+      <c r="M17" s="4">
+        <v>0</v>
+      </c>
+      <c r="N17" s="4">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="L15:L16"/>
     <mergeCell ref="N15:N16"/>
     <mergeCell ref="M15:M16"/>
-    <mergeCell ref="L12:L13"/>
     <mergeCell ref="M12:M13"/>
     <mergeCell ref="N12:N13"/>
     <mergeCell ref="C15:C16"/>
@@ -1400,20 +1597,17 @@
     <mergeCell ref="I12:I13"/>
     <mergeCell ref="J12:J13"/>
     <mergeCell ref="K12:K13"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="K4:K6"/>
+    <mergeCell ref="L5:L6"/>
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="C12:C13"/>
     <mergeCell ref="D12:D13"/>
     <mergeCell ref="E12:E13"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="G4:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="K3:N3"/>
-    <mergeCell ref="L4:N4"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="K4:K6"/>
-    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="L12:L13"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="L15:L16"/>
     <mergeCell ref="A1:N1"/>
     <mergeCell ref="A3:A6"/>
     <mergeCell ref="B3:B6"/>
@@ -1423,6 +1617,13 @@
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="G3:J3"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="G4:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="K3:N3"/>
+    <mergeCell ref="L4:N4"/>
+    <mergeCell ref="M5:N5"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1434,7 +1635,7 @@
   <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B15"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1445,448 +1646,749 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
-      <c r="O1" s="27"/>
-      <c r="P1" s="27"/>
-      <c r="Q1" s="27"/>
-      <c r="R1" s="27"/>
-      <c r="S1" s="27"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
+      <c r="N1" s="52"/>
+      <c r="O1" s="52"/>
+      <c r="P1" s="52"/>
+      <c r="Q1" s="52"/>
+      <c r="R1" s="52"/>
+      <c r="S1" s="52"/>
     </row>
     <row r="3" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="8" t="s">
+      <c r="B3" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="39" t="s">
+      <c r="D3" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="39"/>
-      <c r="K3" s="39"/>
-      <c r="L3" s="39"/>
-      <c r="M3" s="39"/>
-      <c r="N3" s="39"/>
-      <c r="O3" s="39"/>
-      <c r="P3" s="39"/>
-      <c r="Q3" s="39"/>
-      <c r="R3" s="39"/>
-      <c r="S3" s="39"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="53"/>
+      <c r="K3" s="53"/>
+      <c r="L3" s="53"/>
+      <c r="M3" s="53"/>
+      <c r="N3" s="53"/>
+      <c r="O3" s="53"/>
+      <c r="P3" s="53"/>
+      <c r="Q3" s="53"/>
+      <c r="R3" s="53"/>
+      <c r="S3" s="53"/>
     </row>
     <row r="4" spans="1:20" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="8"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="30" t="s">
+      <c r="A4" s="43"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="E4" s="30">
+      <c r="E4" s="16">
         <v>3</v>
       </c>
-      <c r="F4" s="30">
+      <c r="F4" s="16">
         <v>4</v>
       </c>
-      <c r="G4" s="30">
+      <c r="G4" s="16">
         <v>5</v>
       </c>
-      <c r="H4" s="30">
+      <c r="H4" s="16">
         <v>6</v>
       </c>
-      <c r="I4" s="30">
+      <c r="I4" s="16">
         <v>7</v>
       </c>
-      <c r="J4" s="30">
+      <c r="J4" s="16">
         <v>8</v>
       </c>
-      <c r="K4" s="30">
+      <c r="K4" s="16">
         <v>9</v>
       </c>
-      <c r="L4" s="30">
+      <c r="L4" s="16">
         <v>10</v>
       </c>
-      <c r="M4" s="30">
+      <c r="M4" s="16">
         <v>11</v>
       </c>
-      <c r="N4" s="30">
+      <c r="N4" s="16">
         <v>12</v>
       </c>
-      <c r="O4" s="30">
+      <c r="O4" s="16">
         <v>13</v>
       </c>
-      <c r="P4" s="30">
+      <c r="P4" s="16">
         <v>14</v>
       </c>
-      <c r="Q4" s="30">
+      <c r="Q4" s="16">
         <v>15</v>
       </c>
-      <c r="R4" s="30">
+      <c r="R4" s="16">
         <v>16</v>
       </c>
-      <c r="S4" s="30">
+      <c r="S4" s="16">
         <v>17</v>
       </c>
-      <c r="T4" s="32"/>
+      <c r="T4" s="17"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="14">
+      <c r="A5" s="4">
         <v>1</v>
       </c>
-      <c r="B5" s="38">
-        <v>2</v>
-      </c>
-      <c r="C5" s="38">
+      <c r="B5" s="21">
+        <v>2</v>
+      </c>
+      <c r="C5" s="21">
         <v>3</v>
       </c>
-      <c r="D5" s="38">
+      <c r="D5" s="21">
         <v>4</v>
       </c>
-      <c r="E5" s="38">
+      <c r="E5" s="21">
         <v>5</v>
       </c>
-      <c r="F5" s="38">
+      <c r="F5" s="21">
         <v>6</v>
       </c>
-      <c r="G5" s="38">
+      <c r="G5" s="21">
         <v>7</v>
       </c>
-      <c r="H5" s="38">
+      <c r="H5" s="21">
         <v>8</v>
       </c>
-      <c r="I5" s="38">
+      <c r="I5" s="21">
         <v>9</v>
       </c>
-      <c r="J5" s="38">
+      <c r="J5" s="21">
         <v>10</v>
       </c>
-      <c r="K5" s="38">
+      <c r="K5" s="21">
         <v>11</v>
       </c>
-      <c r="L5" s="38">
+      <c r="L5" s="21">
         <v>12</v>
       </c>
-      <c r="M5" s="38">
+      <c r="M5" s="21">
         <v>13</v>
       </c>
-      <c r="N5" s="38">
+      <c r="N5" s="21">
         <v>14</v>
       </c>
-      <c r="O5" s="38">
+      <c r="O5" s="21">
         <v>15</v>
       </c>
-      <c r="P5" s="38">
+      <c r="P5" s="21">
         <v>16</v>
       </c>
-      <c r="Q5" s="38">
+      <c r="Q5" s="21">
         <v>17</v>
       </c>
-      <c r="R5" s="38">
+      <c r="R5" s="21">
         <v>18</v>
       </c>
-      <c r="S5" s="38">
+      <c r="S5" s="21">
         <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="28" t="s">
+      <c r="A6" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="38">
+      <c r="B6" s="21">
         <v>14</v>
       </c>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="38"/>
-      <c r="J6" s="38"/>
-      <c r="K6" s="38"/>
-      <c r="L6" s="38"/>
-      <c r="M6" s="38"/>
-      <c r="N6" s="38"/>
-      <c r="O6" s="38"/>
-      <c r="P6" s="38"/>
-      <c r="Q6" s="38"/>
-      <c r="R6" s="38"/>
-      <c r="S6" s="38"/>
+      <c r="C6" s="21">
+        <v>0</v>
+      </c>
+      <c r="D6" s="22">
+        <v>0</v>
+      </c>
+      <c r="E6" s="22">
+        <v>0</v>
+      </c>
+      <c r="F6" s="22">
+        <v>0</v>
+      </c>
+      <c r="G6" s="22">
+        <v>0</v>
+      </c>
+      <c r="H6" s="22">
+        <v>0</v>
+      </c>
+      <c r="I6" s="22">
+        <v>0</v>
+      </c>
+      <c r="J6" s="22">
+        <v>0</v>
+      </c>
+      <c r="K6" s="22">
+        <v>0</v>
+      </c>
+      <c r="L6" s="22">
+        <v>0</v>
+      </c>
+      <c r="M6" s="22">
+        <v>0</v>
+      </c>
+      <c r="N6" s="22">
+        <v>0</v>
+      </c>
+      <c r="O6" s="22">
+        <v>0</v>
+      </c>
+      <c r="P6" s="22">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="22">
+        <v>0</v>
+      </c>
+      <c r="R6" s="22">
+        <v>0</v>
+      </c>
+      <c r="S6" s="22">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="38">
+      <c r="B7" s="21">
         <v>15</v>
       </c>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="38"/>
-      <c r="J7" s="38"/>
-      <c r="K7" s="38"/>
-      <c r="L7" s="38"/>
-      <c r="M7" s="38"/>
-      <c r="N7" s="38"/>
-      <c r="O7" s="38"/>
-      <c r="P7" s="38"/>
-      <c r="Q7" s="38"/>
-      <c r="R7" s="38"/>
-      <c r="S7" s="38"/>
+      <c r="C7" s="22">
+        <v>0</v>
+      </c>
+      <c r="D7" s="22">
+        <v>0</v>
+      </c>
+      <c r="E7" s="22">
+        <v>0</v>
+      </c>
+      <c r="F7" s="22">
+        <v>0</v>
+      </c>
+      <c r="G7" s="22">
+        <v>0</v>
+      </c>
+      <c r="H7" s="22">
+        <v>0</v>
+      </c>
+      <c r="I7" s="22">
+        <v>0</v>
+      </c>
+      <c r="J7" s="22">
+        <v>0</v>
+      </c>
+      <c r="K7" s="22">
+        <v>0</v>
+      </c>
+      <c r="L7" s="22">
+        <v>0</v>
+      </c>
+      <c r="M7" s="22">
+        <v>0</v>
+      </c>
+      <c r="N7" s="22">
+        <v>0</v>
+      </c>
+      <c r="O7" s="22">
+        <v>0</v>
+      </c>
+      <c r="P7" s="22">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="22">
+        <v>0</v>
+      </c>
+      <c r="R7" s="22">
+        <v>0</v>
+      </c>
+      <c r="S7" s="22">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="28" t="s">
+      <c r="A8" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="38">
+      <c r="B8" s="21">
         <v>16</v>
       </c>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="38"/>
-      <c r="I8" s="38"/>
-      <c r="J8" s="38"/>
-      <c r="K8" s="38"/>
-      <c r="L8" s="38"/>
-      <c r="M8" s="38"/>
-      <c r="N8" s="38"/>
-      <c r="O8" s="38"/>
-      <c r="P8" s="38"/>
-      <c r="Q8" s="38"/>
-      <c r="R8" s="38"/>
-      <c r="S8" s="38"/>
+      <c r="C8" s="22">
+        <v>0</v>
+      </c>
+      <c r="D8" s="22">
+        <v>0</v>
+      </c>
+      <c r="E8" s="22">
+        <v>0</v>
+      </c>
+      <c r="F8" s="22">
+        <v>0</v>
+      </c>
+      <c r="G8" s="22">
+        <v>0</v>
+      </c>
+      <c r="H8" s="22">
+        <v>0</v>
+      </c>
+      <c r="I8" s="22">
+        <v>0</v>
+      </c>
+      <c r="J8" s="22">
+        <v>0</v>
+      </c>
+      <c r="K8" s="22">
+        <v>0</v>
+      </c>
+      <c r="L8" s="22">
+        <v>0</v>
+      </c>
+      <c r="M8" s="22">
+        <v>0</v>
+      </c>
+      <c r="N8" s="22">
+        <v>0</v>
+      </c>
+      <c r="O8" s="22">
+        <v>0</v>
+      </c>
+      <c r="P8" s="22">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="22">
+        <v>0</v>
+      </c>
+      <c r="R8" s="22">
+        <v>0</v>
+      </c>
+      <c r="S8" s="22">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="28" t="s">
+      <c r="A9" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="38">
+      <c r="B9" s="21">
         <v>17</v>
       </c>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="38"/>
-      <c r="I9" s="38"/>
-      <c r="J9" s="38"/>
-      <c r="K9" s="38"/>
-      <c r="L9" s="38"/>
-      <c r="M9" s="38"/>
-      <c r="N9" s="38"/>
-      <c r="O9" s="38"/>
-      <c r="P9" s="38"/>
-      <c r="Q9" s="38"/>
-      <c r="R9" s="38"/>
-      <c r="S9" s="38"/>
+      <c r="C9" s="22">
+        <v>0</v>
+      </c>
+      <c r="D9" s="22">
+        <v>0</v>
+      </c>
+      <c r="E9" s="22">
+        <v>0</v>
+      </c>
+      <c r="F9" s="22">
+        <v>0</v>
+      </c>
+      <c r="G9" s="22">
+        <v>0</v>
+      </c>
+      <c r="H9" s="22">
+        <v>0</v>
+      </c>
+      <c r="I9" s="22">
+        <v>0</v>
+      </c>
+      <c r="J9" s="22">
+        <v>0</v>
+      </c>
+      <c r="K9" s="22">
+        <v>0</v>
+      </c>
+      <c r="L9" s="22">
+        <v>0</v>
+      </c>
+      <c r="M9" s="22">
+        <v>0</v>
+      </c>
+      <c r="N9" s="22">
+        <v>0</v>
+      </c>
+      <c r="O9" s="22">
+        <v>0</v>
+      </c>
+      <c r="P9" s="22">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="22">
+        <v>0</v>
+      </c>
+      <c r="R9" s="22">
+        <v>0</v>
+      </c>
+      <c r="S9" s="22">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:20" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="33" t="s">
+      <c r="A10" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="39">
+      <c r="B10" s="53">
         <v>18</v>
       </c>
-      <c r="C10" s="39"/>
-      <c r="D10" s="39"/>
-      <c r="E10" s="39"/>
-      <c r="F10" s="39"/>
-      <c r="G10" s="39"/>
-      <c r="H10" s="39"/>
-      <c r="I10" s="39"/>
-      <c r="J10" s="39"/>
-      <c r="K10" s="39"/>
-      <c r="L10" s="39"/>
-      <c r="M10" s="39"/>
-      <c r="N10" s="39"/>
-      <c r="O10" s="39"/>
-      <c r="P10" s="39"/>
-      <c r="Q10" s="39"/>
-      <c r="R10" s="39"/>
-      <c r="S10" s="39"/>
+      <c r="C10" s="53">
+        <v>0</v>
+      </c>
+      <c r="D10" s="54">
+        <v>0</v>
+      </c>
+      <c r="E10" s="53">
+        <v>0</v>
+      </c>
+      <c r="F10" s="54">
+        <v>0</v>
+      </c>
+      <c r="G10" s="53">
+        <v>0</v>
+      </c>
+      <c r="H10" s="54">
+        <v>0</v>
+      </c>
+      <c r="I10" s="53">
+        <v>0</v>
+      </c>
+      <c r="J10" s="54">
+        <v>0</v>
+      </c>
+      <c r="K10" s="53">
+        <v>0</v>
+      </c>
+      <c r="L10" s="54">
+        <v>0</v>
+      </c>
+      <c r="M10" s="53">
+        <v>0</v>
+      </c>
+      <c r="N10" s="54">
+        <v>0</v>
+      </c>
+      <c r="O10" s="53">
+        <v>0</v>
+      </c>
+      <c r="P10" s="54">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="53">
+        <v>0</v>
+      </c>
+      <c r="R10" s="54">
+        <v>0</v>
+      </c>
+      <c r="S10" s="53">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:20" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="41" t="s">
+      <c r="A11" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="39"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="39"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="39"/>
-      <c r="G11" s="39"/>
-      <c r="H11" s="39"/>
-      <c r="I11" s="39"/>
-      <c r="J11" s="39"/>
-      <c r="K11" s="39"/>
-      <c r="L11" s="39"/>
-      <c r="M11" s="39"/>
-      <c r="N11" s="39"/>
-      <c r="O11" s="39"/>
-      <c r="P11" s="39"/>
-      <c r="Q11" s="39"/>
-      <c r="R11" s="39"/>
-      <c r="S11" s="39"/>
+      <c r="B11" s="53"/>
+      <c r="C11" s="53"/>
+      <c r="D11" s="55"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="55"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="55"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="55"/>
+      <c r="K11" s="53"/>
+      <c r="L11" s="55"/>
+      <c r="M11" s="53"/>
+      <c r="N11" s="55"/>
+      <c r="O11" s="53"/>
+      <c r="P11" s="55"/>
+      <c r="Q11" s="53"/>
+      <c r="R11" s="55"/>
+      <c r="S11" s="53"/>
     </row>
     <row r="12" spans="1:20" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="41" t="s">
+      <c r="A12" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="38">
+      <c r="B12" s="21">
         <v>19</v>
       </c>
-      <c r="C12" s="38"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
-      <c r="H12" s="38"/>
-      <c r="I12" s="38"/>
-      <c r="J12" s="38"/>
-      <c r="K12" s="38"/>
-      <c r="L12" s="38"/>
-      <c r="M12" s="38"/>
-      <c r="N12" s="38"/>
-      <c r="O12" s="38"/>
-      <c r="P12" s="38"/>
-      <c r="Q12" s="38"/>
-      <c r="R12" s="38"/>
-      <c r="S12" s="38"/>
+      <c r="C12" s="21">
+        <v>0</v>
+      </c>
+      <c r="D12" s="21">
+        <v>0</v>
+      </c>
+      <c r="E12" s="22">
+        <v>0</v>
+      </c>
+      <c r="F12" s="22">
+        <v>0</v>
+      </c>
+      <c r="G12" s="22">
+        <v>0</v>
+      </c>
+      <c r="H12" s="22">
+        <v>0</v>
+      </c>
+      <c r="I12" s="22">
+        <v>0</v>
+      </c>
+      <c r="J12" s="22">
+        <v>0</v>
+      </c>
+      <c r="K12" s="22">
+        <v>0</v>
+      </c>
+      <c r="L12" s="22">
+        <v>0</v>
+      </c>
+      <c r="M12" s="22">
+        <v>0</v>
+      </c>
+      <c r="N12" s="22">
+        <v>0</v>
+      </c>
+      <c r="O12" s="22">
+        <v>0</v>
+      </c>
+      <c r="P12" s="22">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="22">
+        <v>0</v>
+      </c>
+      <c r="R12" s="22">
+        <v>0</v>
+      </c>
+      <c r="S12" s="21">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:20" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="29" t="s">
+      <c r="A13" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="39">
+      <c r="B13" s="53">
         <v>20</v>
       </c>
-      <c r="C13" s="39"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="39"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="39"/>
-      <c r="I13" s="39"/>
-      <c r="J13" s="39"/>
-      <c r="K13" s="39"/>
-      <c r="L13" s="39"/>
-      <c r="M13" s="39"/>
-      <c r="N13" s="39"/>
-      <c r="O13" s="39"/>
-      <c r="P13" s="39"/>
-      <c r="Q13" s="39"/>
-      <c r="R13" s="39"/>
-      <c r="S13" s="39"/>
+      <c r="C13" s="53">
+        <v>0</v>
+      </c>
+      <c r="D13" s="53">
+        <v>0</v>
+      </c>
+      <c r="E13" s="53">
+        <v>0</v>
+      </c>
+      <c r="F13" s="53">
+        <v>0</v>
+      </c>
+      <c r="G13" s="53">
+        <v>0</v>
+      </c>
+      <c r="H13" s="53">
+        <v>0</v>
+      </c>
+      <c r="I13" s="53">
+        <v>0</v>
+      </c>
+      <c r="J13" s="53">
+        <v>0</v>
+      </c>
+      <c r="K13" s="53">
+        <v>0</v>
+      </c>
+      <c r="L13" s="53">
+        <v>0</v>
+      </c>
+      <c r="M13" s="53">
+        <v>0</v>
+      </c>
+      <c r="N13" s="53">
+        <v>0</v>
+      </c>
+      <c r="O13" s="53">
+        <v>0</v>
+      </c>
+      <c r="P13" s="53">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="53">
+        <v>0</v>
+      </c>
+      <c r="R13" s="53">
+        <v>0</v>
+      </c>
+      <c r="S13" s="53">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="41" t="s">
+      <c r="A14" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="39"/>
-      <c r="C14" s="39"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="39"/>
-      <c r="H14" s="39"/>
-      <c r="I14" s="39"/>
-      <c r="J14" s="39"/>
-      <c r="K14" s="39"/>
-      <c r="L14" s="39"/>
-      <c r="M14" s="39"/>
-      <c r="N14" s="39"/>
-      <c r="O14" s="39"/>
-      <c r="P14" s="39"/>
-      <c r="Q14" s="39"/>
-      <c r="R14" s="39"/>
-      <c r="S14" s="39"/>
+      <c r="B14" s="53"/>
+      <c r="C14" s="53"/>
+      <c r="D14" s="53"/>
+      <c r="E14" s="53"/>
+      <c r="F14" s="53"/>
+      <c r="G14" s="53"/>
+      <c r="H14" s="53"/>
+      <c r="I14" s="53"/>
+      <c r="J14" s="53"/>
+      <c r="K14" s="53"/>
+      <c r="L14" s="53"/>
+      <c r="M14" s="53"/>
+      <c r="N14" s="53"/>
+      <c r="O14" s="53"/>
+      <c r="P14" s="53"/>
+      <c r="Q14" s="53"/>
+      <c r="R14" s="53"/>
+      <c r="S14" s="53"/>
     </row>
     <row r="15" spans="1:20" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="19" t="s">
+      <c r="A15" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="38">
+      <c r="B15" s="21">
         <v>21</v>
       </c>
-      <c r="C15" s="38"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="38"/>
-      <c r="H15" s="38"/>
-      <c r="I15" s="38"/>
-      <c r="J15" s="38"/>
-      <c r="K15" s="38"/>
-      <c r="L15" s="38"/>
-      <c r="M15" s="38"/>
-      <c r="N15" s="38"/>
-      <c r="O15" s="38"/>
-      <c r="P15" s="38"/>
-      <c r="Q15" s="38"/>
-      <c r="R15" s="38"/>
-      <c r="S15" s="38"/>
+      <c r="C15" s="21">
+        <v>0</v>
+      </c>
+      <c r="D15" s="21">
+        <v>0</v>
+      </c>
+      <c r="E15" s="22">
+        <v>0</v>
+      </c>
+      <c r="F15" s="22">
+        <v>0</v>
+      </c>
+      <c r="G15" s="22">
+        <v>0</v>
+      </c>
+      <c r="H15" s="22">
+        <v>0</v>
+      </c>
+      <c r="I15" s="22">
+        <v>0</v>
+      </c>
+      <c r="J15" s="22">
+        <v>0</v>
+      </c>
+      <c r="K15" s="22">
+        <v>0</v>
+      </c>
+      <c r="L15" s="22">
+        <v>0</v>
+      </c>
+      <c r="M15" s="22">
+        <v>0</v>
+      </c>
+      <c r="N15" s="22">
+        <v>0</v>
+      </c>
+      <c r="O15" s="22">
+        <v>0</v>
+      </c>
+      <c r="P15" s="22">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="22">
+        <v>0</v>
+      </c>
+      <c r="R15" s="22">
+        <v>0</v>
+      </c>
+      <c r="S15" s="22">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:20" ht="106.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="28" t="s">
+      <c r="A16" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="B16" s="42">
+      <c r="B16" s="25">
         <v>22</v>
       </c>
-      <c r="C16" s="34"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="34"/>
-      <c r="H16" s="34"/>
-      <c r="I16" s="34"/>
-      <c r="J16" s="34"/>
-      <c r="K16" s="34"/>
-      <c r="L16" s="34"/>
-      <c r="M16" s="34"/>
-      <c r="N16" s="34"/>
-      <c r="O16" s="34"/>
-      <c r="P16" s="34"/>
-      <c r="Q16" s="34"/>
-      <c r="R16" s="34"/>
-      <c r="S16" s="34"/>
+      <c r="C16" s="20">
+        <v>0</v>
+      </c>
+      <c r="D16" s="20">
+        <v>0</v>
+      </c>
+      <c r="E16" s="20">
+        <v>0</v>
+      </c>
+      <c r="F16" s="20">
+        <v>0</v>
+      </c>
+      <c r="G16" s="20">
+        <v>0</v>
+      </c>
+      <c r="H16" s="20">
+        <v>0</v>
+      </c>
+      <c r="I16" s="20">
+        <v>0</v>
+      </c>
+      <c r="J16" s="20">
+        <v>0</v>
+      </c>
+      <c r="K16" s="20">
+        <v>0</v>
+      </c>
+      <c r="L16" s="20">
+        <v>0</v>
+      </c>
+      <c r="M16" s="20">
+        <v>0</v>
+      </c>
+      <c r="N16" s="20">
+        <v>0</v>
+      </c>
+      <c r="O16" s="20">
+        <v>0</v>
+      </c>
+      <c r="P16" s="20">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="20">
+        <v>0</v>
+      </c>
+      <c r="R16" s="20">
+        <v>0</v>
+      </c>
+      <c r="S16" s="20">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="N13:N14"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="P13:P14"/>
-    <mergeCell ref="Q13:Q14"/>
-    <mergeCell ref="R13:R14"/>
     <mergeCell ref="S13:S14"/>
     <mergeCell ref="H13:H14"/>
     <mergeCell ref="I13:I14"/>
@@ -1894,6 +2396,11 @@
     <mergeCell ref="K13:K14"/>
     <mergeCell ref="L13:L14"/>
     <mergeCell ref="M13:M14"/>
+    <mergeCell ref="N13:N14"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="P13:P14"/>
+    <mergeCell ref="Q13:Q14"/>
+    <mergeCell ref="R13:R14"/>
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="C13:C14"/>
     <mergeCell ref="D13:D14"/>
@@ -1904,6 +2411,7 @@
     <mergeCell ref="O10:O11"/>
     <mergeCell ref="P10:P11"/>
     <mergeCell ref="Q10:Q11"/>
+    <mergeCell ref="G10:G11"/>
     <mergeCell ref="R10:R11"/>
     <mergeCell ref="S10:S11"/>
     <mergeCell ref="H10:H11"/>
@@ -1917,7 +2425,6 @@
     <mergeCell ref="D10:D11"/>
     <mergeCell ref="E10:E11"/>
     <mergeCell ref="F10:F11"/>
-    <mergeCell ref="G10:G11"/>
     <mergeCell ref="A1:S1"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
@@ -1933,7 +2440,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1946,207 +2453,281 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
     </row>
     <row r="3" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="39" t="s">
+      <c r="C3" s="53" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="8" t="s">
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="43" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="106.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="8"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="30" t="s">
+      <c r="A4" s="43"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="D4" s="30" t="s">
+      <c r="D4" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="E4" s="30" t="s">
+      <c r="E4" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="14">
+      <c r="A5" s="4">
         <v>1</v>
       </c>
-      <c r="B5" s="38">
-        <v>2</v>
-      </c>
-      <c r="C5" s="37">
+      <c r="B5" s="21">
+        <v>2</v>
+      </c>
+      <c r="C5" s="20">
         <v>3</v>
       </c>
-      <c r="D5" s="37">
+      <c r="D5" s="20">
         <v>4</v>
       </c>
-      <c r="E5" s="37">
+      <c r="E5" s="20">
         <v>5</v>
       </c>
-      <c r="F5" s="37">
+      <c r="F5" s="20">
         <v>6</v>
       </c>
-      <c r="G5" s="37">
+      <c r="G5" s="20">
         <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="28" t="s">
+      <c r="A6" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="38">
+      <c r="B6" s="21">
         <v>23</v>
       </c>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
+      <c r="C6" s="20">
+        <v>0</v>
+      </c>
+      <c r="D6" s="20">
+        <v>0</v>
+      </c>
+      <c r="E6" s="20">
+        <v>0</v>
+      </c>
+      <c r="F6" s="20">
+        <v>0</v>
+      </c>
+      <c r="G6" s="20">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="38">
+      <c r="B7" s="21">
         <v>24</v>
       </c>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
+      <c r="C7" s="20">
+        <v>0</v>
+      </c>
+      <c r="D7" s="20">
+        <v>0</v>
+      </c>
+      <c r="E7" s="20">
+        <v>0</v>
+      </c>
+      <c r="F7" s="20">
+        <v>0</v>
+      </c>
+      <c r="G7" s="20">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="28" t="s">
+      <c r="A8" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="38">
+      <c r="B8" s="21">
         <v>25</v>
       </c>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="37"/>
+      <c r="C8" s="20">
+        <v>0</v>
+      </c>
+      <c r="D8" s="20">
+        <v>0</v>
+      </c>
+      <c r="E8" s="20">
+        <v>0</v>
+      </c>
+      <c r="F8" s="20">
+        <v>0</v>
+      </c>
+      <c r="G8" s="20">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="28" t="s">
+      <c r="A9" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="38">
+      <c r="B9" s="21">
         <v>26</v>
       </c>
-      <c r="C9" s="37"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="37"/>
-      <c r="G9" s="37"/>
+      <c r="C9" s="20">
+        <v>0</v>
+      </c>
+      <c r="D9" s="20">
+        <v>0</v>
+      </c>
+      <c r="E9" s="20">
+        <v>0</v>
+      </c>
+      <c r="F9" s="20">
+        <v>0</v>
+      </c>
+      <c r="G9" s="20">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="33" t="s">
+      <c r="A10" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="39">
+      <c r="B10" s="53">
         <v>27</v>
       </c>
-      <c r="C10" s="43"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="43"/>
-      <c r="G10" s="43"/>
+      <c r="C10" s="56">
+        <v>0</v>
+      </c>
+      <c r="D10" s="56">
+        <v>0</v>
+      </c>
+      <c r="E10" s="56">
+        <v>0</v>
+      </c>
+      <c r="F10" s="56">
+        <v>0</v>
+      </c>
+      <c r="G10" s="56">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="41" t="s">
+      <c r="A11" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="39"/>
-      <c r="C11" s="44"/>
-      <c r="D11" s="44"/>
-      <c r="E11" s="44"/>
-      <c r="F11" s="44"/>
-      <c r="G11" s="44"/>
+      <c r="B11" s="53"/>
+      <c r="C11" s="57"/>
+      <c r="D11" s="57"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="57"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="41" t="s">
+      <c r="A12" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="38">
+      <c r="B12" s="21">
         <v>28</v>
       </c>
-      <c r="C12" s="37"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="37"/>
-      <c r="G12" s="37"/>
+      <c r="C12" s="20">
+        <v>0</v>
+      </c>
+      <c r="D12" s="20">
+        <v>0</v>
+      </c>
+      <c r="E12" s="20">
+        <v>0</v>
+      </c>
+      <c r="F12" s="20">
+        <v>0</v>
+      </c>
+      <c r="G12" s="20">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="29" t="s">
+      <c r="A13" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="39">
+      <c r="B13" s="53">
         <v>29</v>
       </c>
-      <c r="C13" s="43"/>
-      <c r="D13" s="43"/>
-      <c r="E13" s="43"/>
-      <c r="F13" s="43"/>
-      <c r="G13" s="43"/>
+      <c r="C13" s="56">
+        <v>0</v>
+      </c>
+      <c r="D13" s="56">
+        <v>0</v>
+      </c>
+      <c r="E13" s="56">
+        <v>0</v>
+      </c>
+      <c r="F13" s="56">
+        <v>0</v>
+      </c>
+      <c r="G13" s="56">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="41" t="s">
+      <c r="A14" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="39"/>
-      <c r="C14" s="44"/>
-      <c r="D14" s="44"/>
-      <c r="E14" s="44"/>
-      <c r="F14" s="44"/>
-      <c r="G14" s="44"/>
+      <c r="B14" s="53"/>
+      <c r="C14" s="57"/>
+      <c r="D14" s="57"/>
+      <c r="E14" s="57"/>
+      <c r="F14" s="57"/>
+      <c r="G14" s="57"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="19" t="s">
+      <c r="A15" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="38">
+      <c r="B15" s="21">
         <v>30</v>
       </c>
-      <c r="C15" s="37"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="37"/>
-      <c r="F15" s="37"/>
-      <c r="G15" s="37"/>
+      <c r="C15" s="20">
+        <v>0</v>
+      </c>
+      <c r="D15" s="20">
+        <v>0</v>
+      </c>
+      <c r="E15" s="20">
+        <v>0</v>
+      </c>
+      <c r="F15" s="20">
+        <v>0</v>
+      </c>
+      <c r="G15" s="20">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
     <mergeCell ref="F13:F14"/>
     <mergeCell ref="G13:G14"/>
     <mergeCell ref="A1:G1"/>
@@ -2159,6 +2740,12 @@
     <mergeCell ref="G3:G4"/>
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2168,8 +2755,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6578935-0AE3-4DC4-9C9E-394EE5D9F7C0}">
   <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:D3"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2181,284 +2768,364 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="59" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="61" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
     </row>
     <row r="3" spans="1:4" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="62" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
     </row>
     <row r="5" spans="1:4" ht="81" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="46" t="s">
+      <c r="A5" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="3" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="49">
+      <c r="A6" s="29">
         <v>1</v>
       </c>
-      <c r="B6" s="14">
-        <v>2</v>
-      </c>
-      <c r="C6" s="14">
+      <c r="B6" s="4">
+        <v>2</v>
+      </c>
+      <c r="C6" s="4">
         <v>3</v>
       </c>
-      <c r="D6" s="14">
+      <c r="D6" s="4">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="51" t="s">
+      <c r="A7" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="B7" s="53">
+      <c r="B7" s="58">
         <v>55</v>
       </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
+      <c r="C7" s="44">
+        <v>2</v>
+      </c>
+      <c r="D7" s="44">
+        <v>2</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="50" t="s">
+      <c r="A8" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
+      <c r="B8" s="45"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="44"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="47" t="s">
+      <c r="A9" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="B9" s="46">
+      <c r="B9" s="26">
         <v>56</v>
       </c>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
+      <c r="C9" s="4">
+        <v>2</v>
+      </c>
+      <c r="D9" s="4">
+        <v>2</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="52" t="s">
+      <c r="A10" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="B10" s="46">
+      <c r="B10" s="26">
         <v>57</v>
       </c>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
+      <c r="C10" s="4">
+        <v>2</v>
+      </c>
+      <c r="D10" s="4">
+        <v>2</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="51" t="s">
+      <c r="A11" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="B11" s="53">
+      <c r="B11" s="58">
         <v>58</v>
       </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
+      <c r="C11" s="44">
+        <v>2</v>
+      </c>
+      <c r="D11" s="44">
+        <v>2</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="50" t="s">
+      <c r="A12" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="B12" s="10"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
+      <c r="B12" s="45"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="44"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="47" t="s">
+      <c r="A13" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="B13" s="46">
+      <c r="B13" s="26">
         <v>59</v>
       </c>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
+      <c r="C13" s="4">
+        <v>2</v>
+      </c>
+      <c r="D13" s="4">
+        <v>2</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="47" t="s">
+      <c r="A14" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="B14" s="46">
+      <c r="B14" s="26">
         <v>60</v>
       </c>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
+      <c r="C14" s="4">
+        <v>2</v>
+      </c>
+      <c r="D14" s="4">
+        <v>2</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="47" t="s">
+      <c r="A15" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="B15" s="46">
+      <c r="B15" s="26">
         <v>61</v>
       </c>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
+      <c r="C15" s="4">
+        <v>2</v>
+      </c>
+      <c r="D15" s="4">
+        <v>2</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="48" t="s">
+      <c r="A16" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="B16" s="46">
+      <c r="B16" s="26">
         <v>62</v>
       </c>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
+      <c r="C16" s="4">
+        <v>2</v>
+      </c>
+      <c r="D16" s="4">
+        <v>2</v>
+      </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="47" t="s">
+      <c r="A17" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="B17" s="46">
+      <c r="B17" s="26">
         <v>63</v>
       </c>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
+      <c r="C17" s="4">
+        <v>2</v>
+      </c>
+      <c r="D17" s="4">
+        <v>2</v>
+      </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="48" t="s">
+      <c r="A18" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="B18" s="46">
+      <c r="B18" s="26">
         <v>64</v>
       </c>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
+      <c r="C18" s="4">
+        <v>2</v>
+      </c>
+      <c r="D18" s="4">
+        <v>2</v>
+      </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="47" t="s">
+      <c r="A19" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="B19" s="46">
+      <c r="B19" s="26">
         <v>65</v>
       </c>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
+      <c r="C19" s="4">
+        <v>2</v>
+      </c>
+      <c r="D19" s="4">
+        <v>2</v>
+      </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="47" t="s">
+      <c r="A20" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="B20" s="46">
+      <c r="B20" s="26">
         <v>66</v>
       </c>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
+      <c r="C20" s="4">
+        <v>2</v>
+      </c>
+      <c r="D20" s="4">
+        <v>2</v>
+      </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="47" t="s">
+      <c r="A21" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="B21" s="46">
+      <c r="B21" s="26">
         <v>67</v>
       </c>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
+      <c r="C21" s="4">
+        <v>2</v>
+      </c>
+      <c r="D21" s="4">
+        <v>2</v>
+      </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="17" t="s">
+      <c r="A22" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="B22" s="46">
+      <c r="B22" s="26">
         <v>68</v>
       </c>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
+      <c r="C22" s="4">
+        <v>2</v>
+      </c>
+      <c r="D22" s="4">
+        <v>2</v>
+      </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="17" t="s">
+      <c r="A23" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="B23" s="46">
+      <c r="B23" s="26">
         <v>69</v>
       </c>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
+      <c r="C23" s="4">
+        <v>2</v>
+      </c>
+      <c r="D23" s="4">
+        <v>2</v>
+      </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="17" t="s">
+      <c r="A24" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="B24" s="46">
+      <c r="B24" s="26">
         <v>70</v>
       </c>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
+      <c r="C24" s="4">
+        <v>2</v>
+      </c>
+      <c r="D24" s="4">
+        <v>2</v>
+      </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="17" t="s">
+      <c r="A25" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="B25" s="46">
+      <c r="B25" s="26">
         <v>71</v>
       </c>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
+      <c r="C25" s="4">
+        <v>2</v>
+      </c>
+      <c r="D25" s="4">
+        <v>2</v>
+      </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="17" t="s">
+      <c r="A26" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="B26" s="46">
+      <c r="B26" s="26">
         <v>72</v>
       </c>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
+      <c r="C26" s="4">
+        <v>2</v>
+      </c>
+      <c r="D26" s="4">
+        <v>2</v>
+      </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="17" t="s">
+      <c r="A27" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="B27" s="46">
+      <c r="B27" s="26">
         <v>73</v>
       </c>
-      <c r="C27" s="17"/>
-      <c r="D27" s="17"/>
+      <c r="C27" s="4">
+        <v>2</v>
+      </c>
+      <c r="D27" s="4">
+        <v>2</v>
+      </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="17" t="s">
+      <c r="A28" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="B28" s="46">
+      <c r="B28" s="26">
         <v>74</v>
       </c>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
+      <c r="C28" s="4">
+        <v>2</v>
+      </c>
+      <c r="D28" s="4">
+        <v>2</v>
+      </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="34"/>
-      <c r="B29" s="54"/>
-      <c r="C29" s="34"/>
-      <c r="D29" s="34"/>
+      <c r="A29" s="19"/>
+      <c r="B29" s="33"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -2481,7 +3148,7 @@
   <dimension ref="A1:J43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2494,459 +3161,459 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="63" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="65" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="56"/>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
     </row>
     <row r="3" spans="1:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="66" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
+      <c r="B3" s="66"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="66"/>
     </row>
     <row r="5" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="43" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="43" t="s">
         <v>72</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="43" t="s">
         <v>73</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="43" t="s">
         <v>74</v>
       </c>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="57"/>
-      <c r="J5" s="4"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="43"/>
+      <c r="H5" s="43"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:10" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="30" t="s">
+      <c r="A6" s="43"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="F6" s="30" t="s">
+      <c r="F6" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="G6" s="30" t="s">
+      <c r="G6" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="H6" s="30" t="s">
+      <c r="H6" s="16" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="14">
+      <c r="A7" s="4">
         <v>1</v>
       </c>
-      <c r="B7" s="14">
-        <v>2</v>
-      </c>
-      <c r="C7" s="14">
+      <c r="B7" s="4">
+        <v>2</v>
+      </c>
+      <c r="C7" s="4">
         <v>3</v>
       </c>
-      <c r="D7" s="14">
+      <c r="D7" s="4">
         <v>4</v>
       </c>
-      <c r="E7" s="14">
+      <c r="E7" s="4">
         <v>5</v>
       </c>
-      <c r="F7" s="14">
+      <c r="F7" s="4">
         <v>6</v>
       </c>
-      <c r="G7" s="14">
+      <c r="G7" s="4">
         <v>7</v>
       </c>
-      <c r="H7" s="14">
+      <c r="H7" s="4">
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="62" t="s">
+      <c r="A8" s="39" t="s">
         <v>79</v>
       </c>
-      <c r="B8" s="38">
+      <c r="B8" s="21">
         <v>75</v>
       </c>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="38"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
     </row>
     <row r="9" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="63" t="s">
+      <c r="A9" s="40" t="s">
         <v>80</v>
       </c>
-      <c r="B9" s="38">
+      <c r="B9" s="21">
         <v>76</v>
       </c>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="38"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="63" t="s">
+      <c r="A10" s="40" t="s">
         <v>81</v>
       </c>
-      <c r="B10" s="38">
+      <c r="B10" s="21">
         <v>77</v>
       </c>
-      <c r="C10" s="38"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="38"/>
-      <c r="H10" s="38"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="62" t="s">
+      <c r="A11" s="39" t="s">
         <v>82</v>
       </c>
-      <c r="B11" s="38">
+      <c r="B11" s="21">
         <v>78</v>
       </c>
-      <c r="C11" s="38"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="38"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
     </row>
     <row r="12" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="63" t="s">
+      <c r="A12" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="B12" s="38">
+      <c r="B12" s="21">
         <v>79</v>
       </c>
-      <c r="C12" s="38"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
-      <c r="H12" s="38"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="63" t="s">
+      <c r="A13" s="40" t="s">
         <v>83</v>
       </c>
-      <c r="B13" s="38">
+      <c r="B13" s="21">
         <v>80</v>
       </c>
-      <c r="C13" s="38"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="38"/>
-      <c r="H13" s="38"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="61"/>
-      <c r="B14" s="40"/>
-      <c r="C14" s="40"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="40"/>
-      <c r="H14" s="40"/>
+      <c r="A14" s="38"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="61"/>
-      <c r="B15" s="40"/>
-      <c r="C15" s="40"/>
-      <c r="D15" s="40"/>
-      <c r="E15" s="40"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="40"/>
-      <c r="H15" s="40"/>
+      <c r="A15" s="38"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="61"/>
-      <c r="B16" s="40"/>
-      <c r="C16" s="40"/>
-      <c r="D16" s="40"/>
-      <c r="E16" s="40"/>
-      <c r="F16" s="40"/>
-      <c r="G16" s="40"/>
-      <c r="H16" s="40"/>
+      <c r="A16" s="38"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="23"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="61"/>
-      <c r="B17" s="40"/>
-      <c r="C17" s="40"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="40"/>
-      <c r="F17" s="40"/>
-      <c r="G17" s="40"/>
-      <c r="H17" s="40"/>
+      <c r="A17" s="38"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="61"/>
-      <c r="B18" s="40"/>
-      <c r="C18" s="40"/>
-      <c r="D18" s="40"/>
-      <c r="E18" s="40"/>
-      <c r="F18" s="40"/>
-      <c r="G18" s="40"/>
-      <c r="H18" s="40"/>
+      <c r="A18" s="38"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="61"/>
-      <c r="B19" s="40"/>
-      <c r="C19" s="40"/>
-      <c r="D19" s="40"/>
-      <c r="E19" s="40"/>
-      <c r="F19" s="40"/>
-      <c r="G19" s="40"/>
-      <c r="H19" s="40"/>
+      <c r="A19" s="38"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="23"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="61"/>
-      <c r="B20" s="40"/>
-      <c r="C20" s="40"/>
-      <c r="D20" s="40"/>
-      <c r="E20" s="40"/>
-      <c r="F20" s="40"/>
-      <c r="G20" s="40"/>
-      <c r="H20" s="40"/>
+      <c r="A20" s="38"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="23"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="61"/>
-      <c r="B21" s="40"/>
-      <c r="C21" s="40"/>
-      <c r="D21" s="40"/>
-      <c r="E21" s="40"/>
-      <c r="F21" s="40"/>
-      <c r="G21" s="40"/>
-      <c r="H21" s="40"/>
+      <c r="A21" s="38"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="23"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="61"/>
-      <c r="B22" s="40"/>
-      <c r="C22" s="40"/>
-      <c r="D22" s="40"/>
-      <c r="E22" s="40"/>
-      <c r="F22" s="40"/>
-      <c r="G22" s="40"/>
-      <c r="H22" s="40"/>
+      <c r="A22" s="38"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="23"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="61"/>
-      <c r="B23" s="40"/>
-      <c r="C23" s="40"/>
-      <c r="D23" s="40"/>
-      <c r="E23" s="40"/>
-      <c r="F23" s="40"/>
-      <c r="G23" s="40"/>
-      <c r="H23" s="40"/>
+      <c r="A23" s="38"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="23"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="61"/>
-      <c r="B24" s="40"/>
-      <c r="C24" s="40"/>
-      <c r="D24" s="40"/>
-      <c r="E24" s="40"/>
-      <c r="F24" s="40"/>
-      <c r="G24" s="40"/>
-      <c r="H24" s="40"/>
+      <c r="A24" s="38"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="23"/>
+      <c r="H24" s="23"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="61"/>
-      <c r="B25" s="40"/>
-      <c r="C25" s="40"/>
-      <c r="D25" s="40"/>
-      <c r="E25" s="40"/>
-      <c r="F25" s="40"/>
-      <c r="G25" s="40"/>
-      <c r="H25" s="40"/>
+      <c r="A25" s="38"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="23"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="61"/>
-      <c r="B26" s="40"/>
-      <c r="C26" s="40"/>
-      <c r="D26" s="40"/>
-      <c r="E26" s="40"/>
-      <c r="F26" s="40"/>
-      <c r="G26" s="40"/>
-      <c r="H26" s="40"/>
+      <c r="A26" s="38"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="23"/>
+      <c r="H26" s="23"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="61"/>
-      <c r="B27" s="40"/>
-      <c r="C27" s="40"/>
-      <c r="D27" s="40"/>
-      <c r="E27" s="40"/>
-      <c r="F27" s="40"/>
-      <c r="G27" s="40"/>
-      <c r="H27" s="40"/>
+      <c r="A27" s="38"/>
+      <c r="B27" s="23"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="23"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="58"/>
-      <c r="B28" s="40"/>
-      <c r="C28" s="40"/>
-      <c r="D28" s="40"/>
-      <c r="E28" s="40"/>
-      <c r="F28" s="40"/>
-      <c r="G28" s="40"/>
-      <c r="H28" s="40"/>
+      <c r="A28" s="35"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="23"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="58"/>
-      <c r="B29" s="40"/>
-      <c r="C29" s="40"/>
-      <c r="D29" s="40"/>
-      <c r="E29" s="40"/>
-      <c r="F29" s="40"/>
-      <c r="G29" s="40"/>
-      <c r="H29" s="40"/>
+      <c r="A29" s="35"/>
+      <c r="B29" s="23"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="23"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="58"/>
-      <c r="B30" s="40"/>
-      <c r="C30" s="40"/>
-      <c r="D30" s="40"/>
-      <c r="E30" s="40"/>
-      <c r="F30" s="40"/>
-      <c r="G30" s="40"/>
-      <c r="H30" s="40"/>
+      <c r="A30" s="35"/>
+      <c r="B30" s="23"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="23"/>
+      <c r="H30" s="23"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="58"/>
-      <c r="B31" s="40"/>
-      <c r="C31" s="40"/>
-      <c r="D31" s="40"/>
-      <c r="E31" s="40"/>
-      <c r="F31" s="40"/>
-      <c r="G31" s="40"/>
-      <c r="H31" s="40"/>
+      <c r="A31" s="35"/>
+      <c r="B31" s="23"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="23"/>
+      <c r="H31" s="23"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="58"/>
-      <c r="B32" s="40"/>
-      <c r="C32" s="40"/>
-      <c r="D32" s="40"/>
-      <c r="E32" s="40"/>
-      <c r="F32" s="40"/>
-      <c r="G32" s="40"/>
-      <c r="H32" s="40"/>
+      <c r="A32" s="35"/>
+      <c r="B32" s="23"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="23"/>
+      <c r="G32" s="23"/>
+      <c r="H32" s="23"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="58"/>
-      <c r="B33" s="40"/>
-      <c r="C33" s="40"/>
-      <c r="D33" s="40"/>
-      <c r="E33" s="40"/>
-      <c r="F33" s="40"/>
-      <c r="G33" s="40"/>
-      <c r="H33" s="40"/>
+      <c r="A33" s="35"/>
+      <c r="B33" s="23"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="23"/>
+      <c r="E33" s="23"/>
+      <c r="F33" s="23"/>
+      <c r="G33" s="23"/>
+      <c r="H33" s="23"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="58"/>
-      <c r="B34" s="40"/>
-      <c r="C34" s="40"/>
-      <c r="D34" s="40"/>
-      <c r="E34" s="40"/>
-      <c r="F34" s="40"/>
-      <c r="G34" s="40"/>
-      <c r="H34" s="40"/>
+      <c r="A34" s="35"/>
+      <c r="B34" s="23"/>
+      <c r="C34" s="23"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="23"/>
+      <c r="G34" s="23"/>
+      <c r="H34" s="23"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="58"/>
-      <c r="B35" s="40"/>
-      <c r="C35" s="40"/>
-      <c r="D35" s="40"/>
-      <c r="E35" s="40"/>
-      <c r="F35" s="40"/>
-      <c r="G35" s="40"/>
-      <c r="H35" s="40"/>
+      <c r="A35" s="35"/>
+      <c r="B35" s="23"/>
+      <c r="C35" s="23"/>
+      <c r="D35" s="23"/>
+      <c r="E35" s="23"/>
+      <c r="F35" s="23"/>
+      <c r="G35" s="23"/>
+      <c r="H35" s="23"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="59"/>
-      <c r="B36" s="7"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
-      <c r="G36" s="7"/>
-      <c r="H36" s="7"/>
+      <c r="A36" s="36"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="59"/>
-      <c r="B37" s="7"/>
-      <c r="C37" s="7"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="7"/>
-      <c r="G37" s="7"/>
-      <c r="H37" s="7"/>
+      <c r="A37" s="36"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="60"/>
+      <c r="A38" s="37"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="60"/>
+      <c r="A39" s="37"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="60"/>
+      <c r="A40" s="37"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="60"/>
+      <c r="A41" s="37"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="60"/>
+      <c r="A42" s="37"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="60"/>
+      <c r="A43" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A3:H3"/>
     <mergeCell ref="E5:H5"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="D5:D6"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A3:H3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
